--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2302,28 +2302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>927.5057350026261</v>
+        <v>1074.333554057851</v>
       </c>
       <c r="AB2" t="n">
-        <v>1269.054265295728</v>
+        <v>1469.950564913298</v>
       </c>
       <c r="AC2" t="n">
-        <v>1147.93750734475</v>
+        <v>1329.660546086547</v>
       </c>
       <c r="AD2" t="n">
-        <v>927505.7350026261</v>
+        <v>1074333.554057851</v>
       </c>
       <c r="AE2" t="n">
-        <v>1269054.265295728</v>
+        <v>1469950.564913298</v>
       </c>
       <c r="AF2" t="n">
         <v>5.284884207456357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>1147937.50734475</v>
+        <v>1329660.546086547</v>
       </c>
     </row>
     <row r="3">
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.4452626396272</v>
+        <v>443.4736232352008</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.3358894818074</v>
+        <v>606.7801759858543</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.9206747663708</v>
+        <v>548.8699276110893</v>
       </c>
       <c r="AD3" t="n">
-        <v>355445.2626396272</v>
+        <v>443473.6232352008</v>
       </c>
       <c r="AE3" t="n">
-        <v>486335.8894818074</v>
+        <v>606780.1759858542</v>
       </c>
       <c r="AF3" t="n">
         <v>9.83184338551806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9625</v>
       </c>
       <c r="AH3" t="n">
-        <v>439920.6747663708</v>
+        <v>548869.9276110893</v>
       </c>
     </row>
     <row r="4">
@@ -2514,28 +2514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.3041604804059</v>
+        <v>346.8238093728443</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.7880302823212</v>
+        <v>474.5396367705208</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.4461551115328</v>
+        <v>429.2502398577047</v>
       </c>
       <c r="AD4" t="n">
-        <v>278304.1604804059</v>
+        <v>346823.8093728443</v>
       </c>
       <c r="AE4" t="n">
-        <v>380788.0302823212</v>
+        <v>474539.6367705208</v>
       </c>
       <c r="AF4" t="n">
         <v>1.152843058939428e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.6125</v>
       </c>
       <c r="AH4" t="n">
-        <v>344446.1551115328</v>
+        <v>429250.2398577047</v>
       </c>
     </row>
     <row r="5">
@@ -2620,28 +2620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>266.7251466236924</v>
+        <v>325.4231198568588</v>
       </c>
       <c r="AB5" t="n">
-        <v>364.9451126935269</v>
+        <v>445.2582692429615</v>
       </c>
       <c r="AC5" t="n">
-        <v>330.1152633417385</v>
+        <v>402.7634449503183</v>
       </c>
       <c r="AD5" t="n">
-        <v>266725.1466236924</v>
+        <v>325423.1198568588</v>
       </c>
       <c r="AE5" t="n">
-        <v>364945.1126935269</v>
+        <v>445258.2692429615</v>
       </c>
       <c r="AF5" t="n">
         <v>1.19130255128307e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.175</v>
       </c>
       <c r="AH5" t="n">
-        <v>330115.2633417385</v>
+        <v>402763.4449503183</v>
       </c>
     </row>
     <row r="6">
@@ -2726,28 +2726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>266.335074408618</v>
+        <v>325.0330476417845</v>
       </c>
       <c r="AB6" t="n">
-        <v>364.4113986800907</v>
+        <v>444.7245552295253</v>
       </c>
       <c r="AC6" t="n">
-        <v>329.6324862446724</v>
+        <v>402.2806678532521</v>
       </c>
       <c r="AD6" t="n">
-        <v>266335.074408618</v>
+        <v>325033.0476417845</v>
       </c>
       <c r="AE6" t="n">
-        <v>364411.3986800907</v>
+        <v>444724.5552295253</v>
       </c>
       <c r="AF6" t="n">
         <v>1.195144733671955e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.13333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>329632.4862446723</v>
+        <v>402280.667853252</v>
       </c>
     </row>
   </sheetData>
@@ -3023,28 +3023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>600.0468295395269</v>
+        <v>716.1119341143391</v>
       </c>
       <c r="AB2" t="n">
-        <v>821.0105443737868</v>
+        <v>979.8159408840768</v>
       </c>
       <c r="AC2" t="n">
-        <v>742.6544503142881</v>
+        <v>886.3036826664097</v>
       </c>
       <c r="AD2" t="n">
-        <v>600046.829539527</v>
+        <v>716111.9341143391</v>
       </c>
       <c r="AE2" t="n">
-        <v>821010.5443737869</v>
+        <v>979815.9408840768</v>
       </c>
       <c r="AF2" t="n">
         <v>7.405731175698022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>742654.450314288</v>
+        <v>886303.6826664098</v>
       </c>
     </row>
     <row r="3">
@@ -3129,28 +3129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.6702301028023</v>
+        <v>357.3667543458548</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.3395881752862</v>
+        <v>488.9649592044992</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.5134941459418</v>
+        <v>442.2988297646514</v>
       </c>
       <c r="AD3" t="n">
-        <v>289670.2301028023</v>
+        <v>357366.7543458547</v>
       </c>
       <c r="AE3" t="n">
-        <v>396339.5881752862</v>
+        <v>488964.9592044991</v>
       </c>
       <c r="AF3" t="n">
         <v>1.192302935499735e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>358513.4941459418</v>
+        <v>442298.8297646514</v>
       </c>
     </row>
     <row r="4">
@@ -3235,28 +3235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.4289660985812</v>
+        <v>325.0913249228561</v>
       </c>
       <c r="AB4" t="n">
-        <v>352.2256683803633</v>
+        <v>444.8042927764995</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.609744942077</v>
+        <v>402.3527953606554</v>
       </c>
       <c r="AD4" t="n">
-        <v>257428.9660985812</v>
+        <v>325091.3249228561</v>
       </c>
       <c r="AE4" t="n">
-        <v>352225.6683803633</v>
+        <v>444804.2927764995</v>
       </c>
       <c r="AF4" t="n">
         <v>1.279351601144627e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>318609.744942077</v>
+        <v>402352.7953606553</v>
       </c>
     </row>
     <row r="5">
@@ -3341,28 +3341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>257.3463005945296</v>
+        <v>325.0086594188044</v>
       </c>
       <c r="AB5" t="n">
-        <v>352.1125617907753</v>
+        <v>444.6911861869114</v>
       </c>
       <c r="AC5" t="n">
-        <v>318.5074330866531</v>
+        <v>402.2504835052315</v>
       </c>
       <c r="AD5" t="n">
-        <v>257346.3005945296</v>
+        <v>325008.6594188044</v>
       </c>
       <c r="AE5" t="n">
-        <v>352112.5617907753</v>
+        <v>444691.1861869114</v>
       </c>
       <c r="AF5" t="n">
         <v>1.283019845104095e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.38333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>318507.4330866531</v>
+        <v>402250.4835052315</v>
       </c>
     </row>
   </sheetData>
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.376691029091</v>
+        <v>336.1190597204179</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.6271197917855</v>
+        <v>459.8929260358469</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.4956894116718</v>
+        <v>416.0013906387604</v>
       </c>
       <c r="AD2" t="n">
-        <v>261376.691029091</v>
+        <v>336119.0597204179</v>
       </c>
       <c r="AE2" t="n">
-        <v>357627.1197917855</v>
+        <v>459892.9260358469</v>
       </c>
       <c r="AF2" t="n">
         <v>1.56622466712034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>323495.6894116718</v>
+        <v>416001.3906387604</v>
       </c>
     </row>
     <row r="3">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.1762727907465</v>
+        <v>335.9186414820734</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.3528987162541</v>
+        <v>459.6187049603154</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.2476396107174</v>
+        <v>415.753340837806</v>
       </c>
       <c r="AD3" t="n">
-        <v>261176.2727907465</v>
+        <v>335918.6414820735</v>
       </c>
       <c r="AE3" t="n">
-        <v>357352.898716254</v>
+        <v>459618.7049603154</v>
       </c>
       <c r="AF3" t="n">
         <v>1.573358252381054e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>323247.6396107174</v>
+        <v>415753.340837806</v>
       </c>
     </row>
   </sheetData>
@@ -4041,28 +4041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.5161479426898</v>
+        <v>405.825113680219</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.544333789673</v>
+        <v>555.2678242777097</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.6902780736241</v>
+        <v>502.2738424519303</v>
       </c>
       <c r="AD2" t="n">
-        <v>320516.1479426898</v>
+        <v>405825.113680219</v>
       </c>
       <c r="AE2" t="n">
-        <v>438544.3337896731</v>
+        <v>555267.8242777097</v>
       </c>
       <c r="AF2" t="n">
         <v>1.244154723976317e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>396690.2780736241</v>
+        <v>502273.8424519303</v>
       </c>
     </row>
     <row r="3">
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.601600885038</v>
+        <v>320.912271976689</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.3571425606456</v>
+        <v>439.0863281687497</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.1104257970819</v>
+        <v>397.1805452698555</v>
       </c>
       <c r="AD3" t="n">
-        <v>254601.600885038</v>
+        <v>320912.271976689</v>
       </c>
       <c r="AE3" t="n">
-        <v>348357.1425606456</v>
+        <v>439086.3281687497</v>
       </c>
       <c r="AF3" t="n">
         <v>1.458679620522267e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>315110.4257970818</v>
+        <v>397180.5452698555</v>
       </c>
     </row>
     <row r="4">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.7014174780046</v>
+        <v>321.0120885696555</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.4937160267397</v>
+        <v>439.2229016348439</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.233964883254</v>
+        <v>397.3040843560277</v>
       </c>
       <c r="AD4" t="n">
-        <v>254701.4174780046</v>
+        <v>321012.0885696555</v>
       </c>
       <c r="AE4" t="n">
-        <v>348493.7160267397</v>
+        <v>439222.9016348439</v>
       </c>
       <c r="AF4" t="n">
         <v>1.462216840135542e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.19583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>315233.964883254</v>
+        <v>397304.0843560277</v>
       </c>
     </row>
   </sheetData>
@@ -4550,28 +4550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.6981759844051</v>
+        <v>354.9251992862189</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.7494308594254</v>
+        <v>485.6243158580982</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.2701869318042</v>
+        <v>439.2770127306086</v>
       </c>
       <c r="AD2" t="n">
-        <v>271698.175984405</v>
+        <v>354925.1992862188</v>
       </c>
       <c r="AE2" t="n">
-        <v>371749.4308594255</v>
+        <v>485624.3158580982</v>
       </c>
       <c r="AF2" t="n">
         <v>1.648540015206401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336270.1869318042</v>
+        <v>439277.0127306086</v>
       </c>
     </row>
     <row r="3">
@@ -4656,28 +4656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.3292778549406</v>
+        <v>355.5563011567544</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.6129322809415</v>
+        <v>486.4878172796143</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.0512769895827</v>
+        <v>440.0581027883871</v>
       </c>
       <c r="AD3" t="n">
-        <v>272329.2778549406</v>
+        <v>355556.3011567544</v>
       </c>
       <c r="AE3" t="n">
-        <v>372612.9322809416</v>
+        <v>486487.8172796143</v>
       </c>
       <c r="AF3" t="n">
         <v>1.651636916789786e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>337051.2769895828</v>
+        <v>440058.1027883871</v>
       </c>
     </row>
   </sheetData>
@@ -4953,28 +4953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.3770940296741</v>
+        <v>787.5590016956413</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.9253179495167</v>
+        <v>1077.572970770977</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.5605156750746</v>
+        <v>974.7309188237576</v>
       </c>
       <c r="AD2" t="n">
-        <v>661377.0940296742</v>
+        <v>787559.0016956413</v>
       </c>
       <c r="AE2" t="n">
-        <v>904925.3179495167</v>
+        <v>1077572.970770977</v>
       </c>
       <c r="AF2" t="n">
         <v>6.825828718111343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>818560.5156750747</v>
+        <v>974730.9188237577</v>
       </c>
     </row>
     <row r="3">
@@ -5059,28 +5059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.905720517255</v>
+        <v>380.5429846890883</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.4489700689671</v>
+        <v>520.6757000232323</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.894542048367</v>
+        <v>470.9831419859489</v>
       </c>
       <c r="AD3" t="n">
-        <v>302905.720517255</v>
+        <v>380542.9846890883</v>
       </c>
       <c r="AE3" t="n">
-        <v>414448.9700689671</v>
+        <v>520675.7000232322</v>
       </c>
       <c r="AF3" t="n">
         <v>1.134581358253508e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>374894.542048367</v>
+        <v>470983.1419859489</v>
       </c>
     </row>
     <row r="4">
@@ -5165,28 +5165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.8837423318812</v>
+        <v>327.7447579971833</v>
       </c>
       <c r="AB4" t="n">
-        <v>355.5844015200151</v>
+        <v>448.4348369699996</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.647925304786</v>
+        <v>405.6368455118286</v>
       </c>
       <c r="AD4" t="n">
-        <v>259883.7423318812</v>
+        <v>327744.7579971834</v>
       </c>
       <c r="AE4" t="n">
-        <v>355584.4015200151</v>
+        <v>448434.8369699996</v>
       </c>
       <c r="AF4" t="n">
         <v>1.253795054090418e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>321647.9253047861</v>
+        <v>405636.8455118286</v>
       </c>
     </row>
     <row r="5">
@@ -5271,28 +5271,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.7962935517695</v>
+        <v>327.6573092170716</v>
       </c>
       <c r="AB5" t="n">
-        <v>355.4647502410983</v>
+        <v>448.3151856910828</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.5396933759975</v>
+        <v>405.5286135830401</v>
       </c>
       <c r="AD5" t="n">
-        <v>259796.2935517695</v>
+        <v>327657.3092170716</v>
       </c>
       <c r="AE5" t="n">
-        <v>355464.7502410983</v>
+        <v>448315.1856910829</v>
       </c>
       <c r="AF5" t="n">
         <v>1.257455123699446e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.32916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>321539.6933759975</v>
+        <v>405528.6135830401</v>
       </c>
     </row>
   </sheetData>
@@ -5568,28 +5568,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.361224182749</v>
+        <v>376.1880769764725</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.0755720586583</v>
+        <v>514.7171231658626</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.9427455323743</v>
+        <v>465.5932433409314</v>
       </c>
       <c r="AD2" t="n">
-        <v>284361.2241827491</v>
+        <v>376188.0769764725</v>
       </c>
       <c r="AE2" t="n">
-        <v>389075.5720586583</v>
+        <v>514717.1231658626</v>
       </c>
       <c r="AF2" t="n">
         <v>1.680952204657176e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.87083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351942.7455323742</v>
+        <v>465593.2433409314</v>
       </c>
     </row>
   </sheetData>
@@ -5865,28 +5865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>438.6792151755311</v>
+        <v>534.5636530114617</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.2202553642586</v>
+        <v>731.4135733342289</v>
       </c>
       <c r="AC2" t="n">
-        <v>542.9360766067123</v>
+        <v>661.6084884406068</v>
       </c>
       <c r="AD2" t="n">
-        <v>438679.2151755311</v>
+        <v>534563.6530114617</v>
       </c>
       <c r="AE2" t="n">
-        <v>600220.2553642587</v>
+        <v>731413.5733342288</v>
       </c>
       <c r="AF2" t="n">
         <v>9.508818300957637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>542936.0766067123</v>
+        <v>661608.4884406069</v>
       </c>
     </row>
     <row r="3">
@@ -5971,28 +5971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.0211531476189</v>
+        <v>318.1402596327734</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.4582160081052</v>
+        <v>435.2935385872508</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.6790459190278</v>
+        <v>393.7497342028013</v>
       </c>
       <c r="AD3" t="n">
-        <v>251021.153147619</v>
+        <v>318140.2596327735</v>
       </c>
       <c r="AE3" t="n">
-        <v>343458.2160081052</v>
+        <v>435293.5385872508</v>
       </c>
       <c r="AF3" t="n">
         <v>1.358268163487407e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>310679.0459190278</v>
+        <v>393749.7342028012</v>
       </c>
     </row>
     <row r="4">
@@ -6077,28 +6077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.8260362239414</v>
+        <v>317.9451427090958</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.1912484251786</v>
+        <v>435.0265710043241</v>
       </c>
       <c r="AC4" t="n">
-        <v>310.4375573475242</v>
+        <v>393.5082456312977</v>
       </c>
       <c r="AD4" t="n">
-        <v>250826.0362239414</v>
+        <v>317945.1427090958</v>
       </c>
       <c r="AE4" t="n">
-        <v>343191.2484251786</v>
+        <v>435026.5710043241</v>
       </c>
       <c r="AF4" t="n">
         <v>1.362256874562419e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>310437.5573475242</v>
+        <v>393508.2456312977</v>
       </c>
     </row>
   </sheetData>
@@ -6374,28 +6374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.0963823894585</v>
+        <v>649.8411367530564</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.7742330546794</v>
+        <v>889.1413122731317</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.0301659000178</v>
+        <v>804.2829133474529</v>
       </c>
       <c r="AD2" t="n">
-        <v>534096.3823894586</v>
+        <v>649841.1367530564</v>
       </c>
       <c r="AE2" t="n">
-        <v>730774.2330546794</v>
+        <v>889141.3122731317</v>
       </c>
       <c r="AF2" t="n">
         <v>8.050315166958474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>661030.1659000178</v>
+        <v>804282.9133474529</v>
       </c>
     </row>
     <row r="3">
@@ -6480,28 +6480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.9199972247029</v>
+        <v>344.4103104510081</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.8941570508952</v>
+        <v>471.2373810696066</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.7330304832463</v>
+        <v>426.2631468061409</v>
       </c>
       <c r="AD3" t="n">
-        <v>276919.9972247028</v>
+        <v>344410.310451008</v>
       </c>
       <c r="AE3" t="n">
-        <v>378894.1570508952</v>
+        <v>471237.3810696066</v>
       </c>
       <c r="AF3" t="n">
         <v>1.254292405151438e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.05416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>342733.0304832463</v>
+        <v>426263.1468061409</v>
       </c>
     </row>
     <row r="4">
@@ -6586,28 +6586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.5722392364675</v>
+        <v>322.0283870439951</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.3169686577268</v>
+        <v>440.6134460433595</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.0740860350732</v>
+        <v>398.5619171578359</v>
       </c>
       <c r="AD4" t="n">
-        <v>254572.2392364675</v>
+        <v>322028.3870439951</v>
       </c>
       <c r="AE4" t="n">
-        <v>348316.9686577268</v>
+        <v>440613.4460433595</v>
       </c>
       <c r="AF4" t="n">
         <v>1.308482913448201e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.47083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>315074.0860350732</v>
+        <v>398561.9171578359</v>
       </c>
     </row>
   </sheetData>
@@ -6883,28 +6883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>823.4606854871274</v>
+        <v>969.8348793011338</v>
       </c>
       <c r="AB2" t="n">
-        <v>1126.695238404994</v>
+        <v>1326.970867954995</v>
       </c>
       <c r="AC2" t="n">
-        <v>1019.165026178319</v>
+        <v>1200.32663073268</v>
       </c>
       <c r="AD2" t="n">
-        <v>823460.6854871274</v>
+        <v>969834.8793011338</v>
       </c>
       <c r="AE2" t="n">
-        <v>1126695.238404994</v>
+        <v>1326970.867954995</v>
       </c>
       <c r="AF2" t="n">
         <v>5.763391180514221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>1019165.026178319</v>
+        <v>1200326.63073268</v>
       </c>
     </row>
     <row r="3">
@@ -6989,28 +6989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.5622245139612</v>
+        <v>418.6649043281308</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.9722601249692</v>
+        <v>572.8357922937677</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.5005216148159</v>
+        <v>518.1651482573336</v>
       </c>
       <c r="AD3" t="n">
-        <v>340562.2245139612</v>
+        <v>418664.9043281308</v>
       </c>
       <c r="AE3" t="n">
-        <v>465972.2601249692</v>
+        <v>572835.7922937677</v>
       </c>
       <c r="AF3" t="n">
         <v>1.030272990706322e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.55416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>421500.5216148159</v>
+        <v>518165.1482573337</v>
       </c>
     </row>
     <row r="4">
@@ -7095,28 +7095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.8253099627835</v>
+        <v>337.0636695736966</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.8186488267389</v>
+        <v>461.1853829103483</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.7145532194301</v>
+        <v>417.1704972431341</v>
       </c>
       <c r="AD4" t="n">
-        <v>268825.3099627835</v>
+        <v>337063.6695736966</v>
       </c>
       <c r="AE4" t="n">
-        <v>367818.6488267389</v>
+        <v>461185.3829103483</v>
       </c>
       <c r="AF4" t="n">
         <v>1.195556605131158e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.40416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>332714.55321943</v>
+        <v>417170.4972431341</v>
       </c>
     </row>
     <row r="5">
@@ -7201,28 +7201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.9302122296887</v>
+        <v>332.1685718406018</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.120960151848</v>
+        <v>454.4876942354575</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.6560825514056</v>
+        <v>411.1120265751097</v>
       </c>
       <c r="AD5" t="n">
-        <v>263930.2122296887</v>
+        <v>332168.5718406018</v>
       </c>
       <c r="AE5" t="n">
-        <v>361120.960151848</v>
+        <v>454487.6942354575</v>
       </c>
       <c r="AF5" t="n">
         <v>1.212477217124394e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.21666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>326656.0825514056</v>
+        <v>411112.0265751097</v>
       </c>
     </row>
     <row r="6">
@@ -7307,28 +7307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.4742527448669</v>
+        <v>332.71261235578</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.8653403860885</v>
+        <v>455.2320744696979</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.3294201808344</v>
+        <v>411.7853642045385</v>
       </c>
       <c r="AD6" t="n">
-        <v>264474.2527448669</v>
+        <v>332712.61235578</v>
       </c>
       <c r="AE6" t="n">
-        <v>361865.3403860885</v>
+        <v>455232.0744696978</v>
       </c>
       <c r="AF6" t="n">
         <v>1.212477217124394e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.21666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>327329.4201808344</v>
+        <v>411785.3642045385</v>
       </c>
     </row>
   </sheetData>
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.183021461477</v>
+        <v>442.8606993643315</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.7135677663708</v>
+        <v>605.9415465054384</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.071430772548</v>
+        <v>548.1113357512603</v>
       </c>
       <c r="AD2" t="n">
-        <v>357183.021461477</v>
+        <v>442860.6993643316</v>
       </c>
       <c r="AE2" t="n">
-        <v>488713.5677663708</v>
+        <v>605941.5465054384</v>
       </c>
       <c r="AF2" t="n">
         <v>1.133948739137167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>442071.430772548</v>
+        <v>548111.3357512603</v>
       </c>
     </row>
     <row r="3">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.4247518618526</v>
+        <v>322.9956259785937</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.8516581588664</v>
+        <v>441.9368650252477</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.3668683276839</v>
+        <v>399.7590308895229</v>
       </c>
       <c r="AD3" t="n">
-        <v>256424.7518618526</v>
+        <v>322995.6259785937</v>
       </c>
       <c r="AE3" t="n">
-        <v>350851.6581588665</v>
+        <v>441936.8650252477</v>
       </c>
       <c r="AF3" t="n">
         <v>1.423416565075113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>317366.8683276839</v>
+        <v>399759.0308895229</v>
       </c>
     </row>
     <row r="4">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.8732739035647</v>
+        <v>322.9628789796546</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.7829046348756</v>
+        <v>441.8920591366035</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.5453782979078</v>
+        <v>399.7185012120054</v>
       </c>
       <c r="AD4" t="n">
-        <v>246873.2739035647</v>
+        <v>322962.8789796546</v>
       </c>
       <c r="AE4" t="n">
-        <v>337782.9046348756</v>
+        <v>441892.0591366035</v>
       </c>
       <c r="AF4" t="n">
         <v>1.427060081930244e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.99583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>305545.3782979078</v>
+        <v>399718.5012120054</v>
       </c>
     </row>
   </sheetData>
@@ -8113,28 +8113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.8648596792746</v>
+        <v>332.6382388708786</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.1362742598795</v>
+        <v>455.1303133865292</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.2881807164954</v>
+        <v>411.6933150563248</v>
       </c>
       <c r="AD2" t="n">
-        <v>266864.8596792746</v>
+        <v>332638.2388708786</v>
       </c>
       <c r="AE2" t="n">
-        <v>365136.2742598795</v>
+        <v>455130.3133865292</v>
       </c>
       <c r="AF2" t="n">
         <v>1.498650662801459e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.15416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>330288.1807164954</v>
+        <v>411693.3150563248</v>
       </c>
     </row>
     <row r="3">
@@ -8219,28 +8219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.6937003432025</v>
+        <v>326.8670018735993</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.3784247517904</v>
+        <v>447.2338523178447</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.5114312317369</v>
+        <v>404.5504811492829</v>
       </c>
       <c r="AD3" t="n">
-        <v>251693.7003432025</v>
+        <v>326867.0018735993</v>
       </c>
       <c r="AE3" t="n">
-        <v>344378.4247517904</v>
+        <v>447233.8523178446</v>
       </c>
       <c r="AF3" t="n">
         <v>1.536427649172818e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.78333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>311511.4312317369</v>
+        <v>404550.4811492829</v>
       </c>
     </row>
   </sheetData>
@@ -14217,28 +14217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.0865449221852</v>
+        <v>344.7719208434943</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.2301290879743</v>
+        <v>471.7321523617311</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.1365869434524</v>
+        <v>426.7106978205609</v>
       </c>
       <c r="AD2" t="n">
-        <v>261086.5449221852</v>
+        <v>344771.9208434944</v>
       </c>
       <c r="AE2" t="n">
-        <v>357230.1290879743</v>
+        <v>471732.1523617311</v>
       </c>
       <c r="AF2" t="n">
         <v>1.608666972968001e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>323136.5869434524</v>
+        <v>426710.6978205609</v>
       </c>
     </row>
     <row r="3">
@@ -14323,28 +14323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.4540261406198</v>
+        <v>335.9017654818383</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.7329331031636</v>
+        <v>459.5956144722768</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.5914040491219</v>
+        <v>415.7324540735382</v>
       </c>
       <c r="AD3" t="n">
-        <v>261454.0261406198</v>
+        <v>335901.7654818383</v>
       </c>
       <c r="AE3" t="n">
-        <v>357732.9331031636</v>
+        <v>459595.6144722768</v>
       </c>
       <c r="AF3" t="n">
         <v>1.612217708760982e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.82083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>323591.4040491219</v>
+        <v>415732.4540735382</v>
       </c>
     </row>
   </sheetData>
@@ -14620,28 +14620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.7073461546032</v>
+        <v>411.8171808687883</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.8059396182827</v>
+        <v>563.4664349564574</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.9269166091173</v>
+        <v>509.6899892343207</v>
       </c>
       <c r="AD2" t="n">
-        <v>320707.3461546032</v>
+        <v>411817.1808687883</v>
       </c>
       <c r="AE2" t="n">
-        <v>438805.9396182827</v>
+        <v>563466.4349564575</v>
       </c>
       <c r="AF2" t="n">
         <v>1.683740504941608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>396926.9166091173</v>
+        <v>509689.9892343207</v>
       </c>
     </row>
   </sheetData>
@@ -14917,28 +14917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.475010125338</v>
+        <v>590.2656318209465</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.8800823824671</v>
+        <v>807.6274781392365</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.6157376779225</v>
+        <v>730.5486451379116</v>
       </c>
       <c r="AD2" t="n">
-        <v>484475.010125338</v>
+        <v>590265.6318209465</v>
       </c>
       <c r="AE2" t="n">
-        <v>662880.0823824671</v>
+        <v>807627.4781392365</v>
       </c>
       <c r="AF2" t="n">
         <v>8.740307227010419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>599615.7376779226</v>
+        <v>730548.6451379117</v>
       </c>
     </row>
     <row r="3">
@@ -15023,28 +15023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.458429776521</v>
+        <v>323.8014761220445</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.8977377674805</v>
+        <v>443.0394647431162</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.408550163125</v>
+        <v>400.7564000378265</v>
       </c>
       <c r="AD3" t="n">
-        <v>256458.429776521</v>
+        <v>323801.4761220445</v>
       </c>
       <c r="AE3" t="n">
-        <v>350897.7377674805</v>
+        <v>443039.4647431162</v>
       </c>
       <c r="AF3" t="n">
         <v>1.314873828830984e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>317408.550163125</v>
+        <v>400756.4000378265</v>
       </c>
     </row>
     <row r="4">
@@ -15129,28 +15129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.9781034102599</v>
+        <v>319.3211497557834</v>
       </c>
       <c r="AB4" t="n">
-        <v>344.7675575751159</v>
+        <v>436.9092845507484</v>
       </c>
       <c r="AC4" t="n">
-        <v>311.8634257645558</v>
+        <v>395.2112756392564</v>
       </c>
       <c r="AD4" t="n">
-        <v>251978.1034102599</v>
+        <v>319321.1497557834</v>
       </c>
       <c r="AE4" t="n">
-        <v>344767.5575751159</v>
+        <v>436909.2845507484</v>
       </c>
       <c r="AF4" t="n">
         <v>1.336535384514528e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.55833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>311863.4257645558</v>
+        <v>395211.2756392563</v>
       </c>
     </row>
     <row r="5">
@@ -15235,28 +15235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.9746258739131</v>
+        <v>319.3176722194365</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.762799456468</v>
+        <v>436.9045264321006</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.8591217540737</v>
+        <v>395.2069716287742</v>
       </c>
       <c r="AD5" t="n">
-        <v>251974.6258739131</v>
+        <v>319317.6722194366</v>
       </c>
       <c r="AE5" t="n">
-        <v>344762.799456468</v>
+        <v>436904.5264321006</v>
       </c>
       <c r="AF5" t="n">
         <v>1.340189140894884e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.525</v>
       </c>
       <c r="AH5" t="n">
-        <v>311859.1217540737</v>
+        <v>395206.9716287742</v>
       </c>
     </row>
   </sheetData>
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>742.071143047414</v>
+        <v>868.5760975481885</v>
       </c>
       <c r="AB2" t="n">
-        <v>1015.334475785781</v>
+        <v>1188.424135538446</v>
       </c>
       <c r="AC2" t="n">
-        <v>918.4323784476721</v>
+        <v>1075.002604006406</v>
       </c>
       <c r="AD2" t="n">
-        <v>742071.143047414</v>
+        <v>868576.0975481885</v>
       </c>
       <c r="AE2" t="n">
-        <v>1015334.475785781</v>
+        <v>1188424.135538446</v>
       </c>
       <c r="AF2" t="n">
         <v>6.276429198205245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>918432.3784476721</v>
+        <v>1075002.604006406</v>
       </c>
     </row>
     <row r="3">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.1501651257619</v>
+        <v>394.2713122875577</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.2530446548483</v>
+        <v>539.4594034945271</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.6632803930706</v>
+        <v>487.9741551610368</v>
       </c>
       <c r="AD3" t="n">
-        <v>326150.1651257619</v>
+        <v>394271.3122875578</v>
       </c>
       <c r="AE3" t="n">
-        <v>446253.0446548483</v>
+        <v>539459.4034945271</v>
       </c>
       <c r="AF3" t="n">
         <v>1.081366375666735e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>403663.2803930706</v>
+        <v>487974.1551610368</v>
       </c>
     </row>
     <row r="4">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.0125094940158</v>
+        <v>330.0653258182501</v>
       </c>
       <c r="AB4" t="n">
-        <v>358.4970746658267</v>
+        <v>451.60994023901</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.2826170135238</v>
+        <v>408.5089213811301</v>
       </c>
       <c r="AD4" t="n">
-        <v>262012.5094940158</v>
+        <v>330065.3258182501</v>
       </c>
       <c r="AE4" t="n">
-        <v>358497.0746658267</v>
+        <v>451609.94023901</v>
       </c>
       <c r="AF4" t="n">
         <v>1.232371704613473e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.2875</v>
       </c>
       <c r="AH4" t="n">
-        <v>324282.6170135238</v>
+        <v>408508.9213811301</v>
       </c>
     </row>
     <row r="5">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.8012498761671</v>
+        <v>329.8540662004014</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.2080199365696</v>
+        <v>451.3208855097528</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.0211492619362</v>
+        <v>408.2474536295423</v>
       </c>
       <c r="AD5" t="n">
-        <v>261801.2498761671</v>
+        <v>329854.0662004014</v>
       </c>
       <c r="AE5" t="n">
-        <v>358208.0199365696</v>
+        <v>451320.8855097528</v>
       </c>
       <c r="AF5" t="n">
         <v>1.23555531514046e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.25416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>324021.1492619361</v>
+        <v>408247.4536295424</v>
       </c>
     </row>
   </sheetData>
@@ -16147,28 +16147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.7321861994724</v>
+        <v>495.0837224312745</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.8298415260621</v>
+        <v>677.395390582805</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.5043268260524</v>
+        <v>612.7457252359831</v>
       </c>
       <c r="AD2" t="n">
-        <v>377732.1861994724</v>
+        <v>495083.7224312745</v>
       </c>
       <c r="AE2" t="n">
-        <v>516829.8415260621</v>
+        <v>677395.390582805</v>
       </c>
       <c r="AF2" t="n">
         <v>1.611603557972823e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>467504.3268260524</v>
+        <v>612745.725235983</v>
       </c>
     </row>
   </sheetData>
@@ -16444,28 +16444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9627936537985</v>
+        <v>361.5076565379147</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.2669100652066</v>
+        <v>494.6307242673873</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.9249453151397</v>
+        <v>447.4238621618886</v>
       </c>
       <c r="AD2" t="n">
-        <v>285962.7936537985</v>
+        <v>361507.6565379147</v>
       </c>
       <c r="AE2" t="n">
-        <v>391266.9100652066</v>
+        <v>494630.7242673873</v>
       </c>
       <c r="AF2" t="n">
         <v>1.371829614107025e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>353924.9453151397</v>
+        <v>447423.8621618886</v>
       </c>
     </row>
     <row r="3">
@@ -16550,28 +16550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.1776696866716</v>
+        <v>319.2121049025721</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.4088570756307</v>
+        <v>436.7600845718654</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.3480819443204</v>
+        <v>395.0763150969545</v>
       </c>
       <c r="AD3" t="n">
-        <v>253177.6696866716</v>
+        <v>319212.1049025721</v>
       </c>
       <c r="AE3" t="n">
-        <v>346408.8570756307</v>
+        <v>436760.0845718654</v>
       </c>
       <c r="AF3" t="n">
         <v>1.494821234682138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.49166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>313348.0819443204</v>
+        <v>395076.3150969545</v>
       </c>
     </row>
     <row r="4">
@@ -16656,28 +16656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.3880956218752</v>
+        <v>319.4225308377756</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.6967711235131</v>
+        <v>437.0479986197479</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.6085178795629</v>
+        <v>395.336751032197</v>
       </c>
       <c r="AD4" t="n">
-        <v>253388.0956218752</v>
+        <v>319422.5308377756</v>
       </c>
       <c r="AE4" t="n">
-        <v>346696.7711235132</v>
+        <v>437047.9986197479</v>
       </c>
       <c r="AF4" t="n">
         <v>1.498304091224205e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>313608.5178795629</v>
+        <v>395336.751032197</v>
       </c>
     </row>
   </sheetData>
@@ -16953,28 +16953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.3578355296971</v>
+        <v>491.8731496021383</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.314276645331</v>
+        <v>673.002543197504</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.5565632251676</v>
+        <v>608.7721250397353</v>
       </c>
       <c r="AD2" t="n">
-        <v>396357.8355296971</v>
+        <v>491873.1496021383</v>
       </c>
       <c r="AE2" t="n">
-        <v>542314.2766453311</v>
+        <v>673002.543197504</v>
       </c>
       <c r="AF2" t="n">
         <v>1.037258424098086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.59583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>490556.5632251676</v>
+        <v>608772.1250397353</v>
       </c>
     </row>
     <row r="3">
@@ -17059,28 +17059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.575857895543</v>
+        <v>324.947110650962</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.1124551654038</v>
+        <v>444.6069724474094</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.6525997953478</v>
+        <v>402.1743070068329</v>
       </c>
       <c r="AD3" t="n">
-        <v>248575.857895543</v>
+        <v>324947.110650962</v>
       </c>
       <c r="AE3" t="n">
-        <v>340112.4551654038</v>
+        <v>444606.9724474094</v>
       </c>
       <c r="AF3" t="n">
         <v>1.391219563331343e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>307652.5997953478</v>
+        <v>402174.3070068329</v>
       </c>
     </row>
     <row r="4">
@@ -17165,28 +17165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.5505227984516</v>
+        <v>315.43515844231</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.0777905678577</v>
+        <v>431.5922997978168</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.6212435383394</v>
+        <v>390.4017364487096</v>
       </c>
       <c r="AD4" t="n">
-        <v>248550.5227984516</v>
+        <v>315435.1584423099</v>
       </c>
       <c r="AE4" t="n">
-        <v>340077.7905678577</v>
+        <v>431592.2997978168</v>
       </c>
       <c r="AF4" t="n">
         <v>1.394968857469945e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.825</v>
       </c>
       <c r="AH4" t="n">
-        <v>307621.2435383394</v>
+        <v>390401.7364487096</v>
       </c>
     </row>
   </sheetData>
